--- a/Resources/Período Pendulo.xlsx
+++ b/Resources/Período Pendulo.xlsx
@@ -1,18 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rogiel/Documents/GitHub/ufrgs-instrumentacao-lab2/Resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - Medida de Período" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1 - Medida de Período" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Medida de Período</t>
   </si>
@@ -26,11 +38,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -42,7 +51,7 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
@@ -183,45 +192,45 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -229,29 +238,85 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -377,7 +442,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -386,7 +451,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -395,7 +460,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -459,8 +524,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -468,7 +533,7 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -476,7 +541,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -495,7 +560,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -503,7 +568,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -531,7 +596,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -557,7 +622,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -583,7 +648,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -609,7 +674,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -635,7 +700,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -661,7 +726,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -687,7 +752,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -713,7 +778,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -739,7 +804,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -752,9 +817,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -771,7 +842,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -790,7 +861,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -816,7 +887,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -842,7 +913,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -868,7 +939,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -894,7 +965,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -920,7 +991,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -946,7 +1017,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -972,7 +1043,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -998,7 +1069,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1024,7 +1095,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1037,9 +1108,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1053,7 +1130,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1072,7 +1149,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1102,7 +1179,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1128,7 +1205,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1154,7 +1231,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1180,7 +1257,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1206,7 +1283,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1232,7 +1309,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1258,7 +1335,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1284,7 +1361,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1310,7 +1387,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1323,234 +1400,399 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D15"/>
+  <dimension ref="A1:IV15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.0469" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.4375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.05469" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.05469" style="1" customWidth="1"/>
-    <col min="5" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8" style="1" customWidth="1"/>
+    <col min="5" max="256" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
-    <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
-    <row r="3" ht="20.55" customHeight="1">
-      <c r="A3" s="6">
+    <row r="3" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
         <v>120</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="4">
         <v>0.99</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="5">
         <v>0.8</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="5">
         <v>1.01</v>
       </c>
+      <c r="E3" s="1">
+        <f>AVERAGE(B3:D3)</f>
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="F3" s="1">
+        <f>_xlfn.STDEV.S(B3:D3)</f>
+        <v>0.11590225767142602</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f>CONCATENATE("{", A3, ",", B3, "},{", A3, ",", C3, "},{", A3, ",", D3, "},")</f>
+        <v>{120,0.99},{120,0.8},{120,1.01},</v>
+      </c>
     </row>
-    <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" s="9">
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
         <v>125</v>
       </c>
-      <c r="B4" s="10">
-        <v>1.15</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="B4" s="7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C4" s="8">
         <v>0.98</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>0.95</v>
       </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E15" si="0">AVERAGE(B4:D4)</f>
+        <v>1.0266666666666666</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F15" si="1">_xlfn.STDEV.S(B4:D4)</f>
+        <v>0.10785793124908954</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f t="shared" ref="G4:G15" si="2">CONCATENATE("{", A4, ",", B4, "},{", A4, ",", C4, "},{", A4, ",", D4, "},")</f>
+        <v>{125,1.15},{125,0.98},{125,0.95},</v>
+      </c>
     </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="9">
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
         <v>130</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="7">
         <v>1.23</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="8">
         <v>0.93</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>1</v>
       </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0533333333333335</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.15695009822657985</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{130,1.23},{130,0.93},{130,1},</v>
+      </c>
     </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="9">
+    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
         <v>135</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="7">
         <v>1.01</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="8">
         <v>0.95</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <v>0.95</v>
       </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.97000000000000008</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4641016151377581E-2</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{135,1.01},{135,0.95},{135,0.95},</v>
+      </c>
     </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="9">
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
         <v>140</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="7">
         <v>0.96</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="8">
         <v>1.05</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="8">
         <v>1.01</v>
       </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0066666666666666</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>4.5092497528228984E-2</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{140,0.96},{140,1.05},{140,1.01},</v>
+      </c>
     </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="9">
+    <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
         <v>145</v>
       </c>
-      <c r="B8" s="10">
-        <v>1.1</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B8" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C8" s="8">
         <v>1.08</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="8">
         <v>0.84</v>
       </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0066666666666666</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.14468356276140518</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{145,1.1},{145,1.08},{145,0.84},</v>
+      </c>
     </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="9">
+    <row r="9" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
         <v>150</v>
       </c>
-      <c r="B9" s="10">
-        <v>1.15</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C9" s="8">
         <v>1.2</v>
       </c>
-      <c r="D9" s="11">
-        <v>1.1</v>
+      <c r="D9" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999933E-2</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{150,1.15},{150,1.2},{150,1.1},</v>
       </c>
     </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="9">
+    <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
         <v>155</v>
       </c>
-      <c r="B10" s="10">
-        <v>1.16</v>
-      </c>
-      <c r="C10" s="11">
-        <v>1.13</v>
-      </c>
-      <c r="D10" s="11">
+      <c r="B10" s="7">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D10" s="8">
         <v>0.93</v>
       </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0733333333333335</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1250333288900736</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{155,1.16},{155,1.13},{155,0.93},</v>
+      </c>
     </row>
-    <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="9">
+    <row r="11" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
         <v>160</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="7">
         <v>1.01</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="8">
         <v>1.01</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="8">
         <v>1.01</v>
       </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.01</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{160,1.01},{160,1.01},{160,1.01},</v>
+      </c>
     </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" s="9">
+    <row r="12" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6">
         <v>165</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="7">
         <v>1.03</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="8">
         <v>1</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="8">
         <v>1.05</v>
       </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0266666666666666</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5166114784235857E-2</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{165,1.03},{165,1},{165,1.05},</v>
+      </c>
     </row>
-    <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="9">
+    <row r="13" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6">
         <v>170</v>
       </c>
-      <c r="B13" s="10">
-        <v>1.13</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="B13" s="7">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C13" s="8">
         <v>1.03</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="8">
         <v>1.05</v>
       </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>1.07</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>5.2915026221291732E-2</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{170,1.13},{170,1.03},{170,1.05},</v>
+      </c>
     </row>
-    <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="9">
+    <row r="14" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6">
         <v>175</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="7">
         <v>1.23</v>
       </c>
-      <c r="C14" s="11">
-        <v>1.13</v>
-      </c>
-      <c r="D14" s="11">
-        <v>1.11</v>
+      <c r="C14" s="8">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1566666666666665</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>6.4291005073286348E-2</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{175,1.23},{175,1.13},{175,1.11},</v>
       </c>
     </row>
-    <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" s="9">
+    <row r="15" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6">
         <v>180</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="7">
         <v>1.2</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="8">
         <v>1.3</v>
       </c>
-      <c r="D15" s="11">
-        <v>1.1</v>
+      <c r="D15" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{180,1.2},{180,1.3},{180,1.1},</v>
       </c>
     </row>
   </sheetData>
@@ -1558,8 +1800,8 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:D2"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
